--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-84228.42901841072</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20105524.49589032</v>
+        <v>14504503.06052411</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1975042.235761816</v>
       </c>
     </row>
     <row r="11">
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1932,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1977,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>2.677227098474517</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2059,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.40220350370247</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2169,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2217,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>2.677227098474515</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.40220350370247</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>205.5539892783822</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2375,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>124.8306395731037</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>174.5071388043578</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>153.3187614035089</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="25">
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>31.40208394875348</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>54.91274684145317</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2631,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>124.8306395731037</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>174.5071388043578</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="28">
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>167.8191401812167</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2792,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2855,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>156.7012890994288</v>
       </c>
     </row>
     <row r="30">
@@ -2868,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>31.62322353306969</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>124.8306395731037</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>174.5071388043578</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="31">
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>34.51516921304759</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>130.7837217554836</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>124.8306395731037</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>174.5071388043578</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>197.1263427586207</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="34">
@@ -3190,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>2.188007759424337</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>196.2291113321757</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3278,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>44.17482029426318</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>124.8306395731037</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>174.5071388043578</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="37">
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3484,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>222.9630555389311</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>305.2929150998953</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3551,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>83.52738940623969</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>124.8306395731037</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>174.5071388043578</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>176.0448961179416</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>315.1723433222105</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3794,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3816,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>124.8306395731037</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>174.5071388043578</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="43">
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>34.51516921304759</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3977,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>315.1723433222098</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>124.8306395731037</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.5071388043578</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>34.5151692130476</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.160310701713749</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2.50813845558963</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>4.180237967355345</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>6.040770853278583</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>7.931409106423306</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>9.716685196678936</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>11.24037703589</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.754691727162037</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.852011837538955</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.852011837538955</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.556507875659888</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>6.852011837538955</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>6.852011837538955</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>6.852011837538955</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>6.852011837538955</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3.556507875659888</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.4561956203818615</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.9918165824064463</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1.907278118958098</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>3.13822912982236</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>4.574690899292685</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>6.049171537475493</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>7.398033258238114</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>8.480613706900034</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>9.204290067271581</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>6.852011837538955</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>6.852011837538955</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>6.852011837538955</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>6.852011837538955</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>6.852011837538955</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.5970352923692026</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.149238072150545</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.855867513507672</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2.600909182660231</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.328235426170352</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>4.000038933215761</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>4.574882891135243</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>4.972875051116929</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>4.972875051116929</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>4.972875051116929</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>4.972875051116929</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>4.972875051116929</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>3.556507875659888</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.160310701713749</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>2.508138455589631</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>4.180237967355346</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>6.040770853278584</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>7.931409106423307</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>9.716685196678938</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>11.24037703589</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.4561956203818615</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.9918165824064463</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1.907278118958098</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>3.13822912982236</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>4.574690899292685</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>6.049171537475493</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>7.398033258238114</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>8.480613706900034</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>9.204290067271581</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>8.338324551704998</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>8.338324551704998</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>8.674355930293377</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>9.226558710074722</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>9.933188151431848</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>10.67822982058441</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>11.40555606409453</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>12.07735957113994</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>12.65220352905942</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1552.388803007393</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>78.92582826486733</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>2052.622535079674</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2190.813294436407</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2018.251582919632</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1852.373590121155</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1682.615586371892</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1682.615586371892</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1517.87440598441</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1517.87440598441</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1517.87440598441</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1576.780069686593</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1673.580170254151</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1797.450971872449</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1928.055364210979</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>2055.554276014868</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1941.185114027047</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>79.14920158235846</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>854.7959157263747</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>612.5486916297813</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>334.1620596785243</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1915.005753073567</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>577.1450828701352</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>743.0230756686125</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1333.784481314111</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>914.6420178934214</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>914.6420178934214</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>520.0179769014339</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>274.6262222348465</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1229.635491110173</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>791.4930182935964</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>355.5832334680409</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1655.935061595081</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>711.8365956204211</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>466.4448409538336</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>239.0251702679419</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>2101.256885969251</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>542.571305066391</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>436.1148439030333</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>341.0245550495866</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>246.9041403765403</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>163.5203019927019</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>79.14920158235873</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>945.2284211280535</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>790.3609853669334</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>663.8752061461541</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>369.0258669644309</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>82.07035883486139</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1663.114413152674</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1227.204628327118</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>793.4298834854135</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>365.5624538946212</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>2101.256885969251</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>81.42328772043085</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>369.0258669644309</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>82.07035883486139</v>
       </c>
     </row>
   </sheetData>
@@ -23744,13 +23746,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>79.30891504736402</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>214.9460500556102</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>355.7282316432514</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>397.5443511208167</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -23820,13 +23822,13 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F18" t="n">
-        <v>82.55</v>
+        <v>79.28745107773972</v>
       </c>
       <c r="G18" t="n">
-        <v>84.53123883647795</v>
+        <v>81.26296338663548</v>
       </c>
       <c r="H18" t="n">
-        <v>41.31829566194965</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23859,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>62.82088317610075</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T18" t="n">
-        <v>128.8768572327044</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U18" t="n">
-        <v>174.5731815300314</v>
+        <v>171.8955776863212</v>
       </c>
       <c r="V18" t="n">
         <v>197.1263427586206</v>
@@ -23902,13 +23904,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>282.6837495445714</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>266.0435914473111</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -23981,13 +23983,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>283.2555893965761</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>214.5571542240768</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>253.3666745061949</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>355.7282316432514</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24057,13 +24059,13 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F21" t="n">
-        <v>82.55</v>
+        <v>79.28745107773972</v>
       </c>
       <c r="G21" t="n">
-        <v>84.53123883647795</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H21" t="n">
-        <v>41.31829566194965</v>
+        <v>38.00044053909289</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24096,16 +24098,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>62.82088317610075</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T21" t="n">
-        <v>128.8768572327044</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U21" t="n">
-        <v>174.5731815300314</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V21" t="n">
-        <v>197.1263427586206</v>
+        <v>194.4491156601461</v>
       </c>
       <c r="W21" t="n">
         <v>183.4695267241379</v>
@@ -24139,13 +24141,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>137.0582644452404</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>280.8234041260135</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -24206,25 +24208,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>228.2070588100287</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24282,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24333,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24376,13 +24378,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>193.7433900302793</v>
       </c>
     </row>
     <row r="26">
@@ -24443,25 +24445,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>201.567237722248</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -24519,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24570,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>22.08129235058053</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -24680,25 +24682,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24743,10 +24745,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>247.5019733639143</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24807,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24850,13 +24852,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>108.4671038977602</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>291.2528530245751</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -24993,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25044,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25078,22 +25080,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>273.4147578723201</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>225.807463447883</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -25166,13 +25168,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25230,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25324,13 +25326,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>46.34308483064029</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>124.1440822933925</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25467,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25518,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -25561,13 +25563,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>93.26124425162976</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>106.8642314578482</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25704,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25755,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25798,13 +25800,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>96.50545080142967</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -25865,25 +25867,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>80.33532108510778</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26025,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>136.3209251885597</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -26035,13 +26037,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2114.686156737115</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2114.686156737111</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>370538.9985538287</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>370538.9985538289</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>370538.9985538286</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>370538.9985538289</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>370538.9985538289</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>370538.9985538289</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>370538.9985538288</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>370538.9985538287</v>
       </c>
     </row>
   </sheetData>
@@ -26326,34 +26328,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>678.2955597081277</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>678.2955597081277</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118852.1316116055</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>118852.1316116056</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>118852.1316116055</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>118852.1316116055</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>118852.1316116055</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>118852.1316116055</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>118852.1316116055</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>118852.1316116055</v>
       </c>
     </row>
     <row r="3">
@@ -26378,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2964.145017549301</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>505352.9283264389</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>785.1356606908849</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,34 +26432,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.310945981732029</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2.310945981732029</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>414.2905444231689</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>256.4018338459631</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>256.4018338459632</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26534,34 +26536,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-2544.562237668868</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>419.5827798804326</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-432966.1684688943</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>72386.75985754456</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>72386.75985754454</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>72386.75985754456</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>72386.75985754453</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>72386.75985754454</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>71601.62419685366</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>72386.75985754456</v>
       </c>
     </row>
   </sheetData>
@@ -26750,34 +26752,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>466.7019280932211</v>
       </c>
     </row>
     <row r="4">
@@ -26802,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26972,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>464.0395950944809</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27024,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>586.8193454396738</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>3.262548922260389</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313975</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.9083906948817443</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.6723126642497281</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.04685170935471608</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.0008562276980873292</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.0057265275821961</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.05530620059647287</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.5410312747723079</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.9247086227794465</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.7309862225975232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.3555470370770527</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.04268461758636077</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.3394256349377581</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.7137671124819465</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.7346729732425469</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.6785894010559683</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.5806504625449316</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.08366708784565799</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.02051305753127765</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313975</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.9083906948817443</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.6723126642497281</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.04685170935471608</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.0008562276980873292</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.0057265275821961</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.05530620059647287</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.5410312747723079</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.9247086227794465</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7309862225975232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.3555470370770527</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.04268461758636077</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.3394256349377581</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.7137671124819465</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.7346729732425469</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>0.6785894010559683</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.5806504625449316</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.08366708784565799</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.02051305753127765</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>72.33176314699081</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.9083906948817447</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.909735609237093</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1.539082665869758</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.155786985397851</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.6723126642497288</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.5410312747723079</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.9247086227794465</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.362486586628911</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.7309862225975223</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.3555470370770522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.3394256349377581</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.7137671124819465</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.7346729732425468</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.5806504625449316</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.4020122828097836</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.9083906948817443</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.361442175632205</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.688989405823954</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.539082665869758</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.155786985397851</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.6723126642497306</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.5410312747723078</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.9247086227794465</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.362486586628911</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7309862225975223</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.3555470370770522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.3394256349377578</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.5577805856377207</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.7137671124819462</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.7346729732425477</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>0.6785894010559677</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.5806504625449325</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.4020122828097836</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>59.50067040624549</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>71.91914166785941</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>159.2391669125707</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>202.6072676879476</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>334.7730322994723</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>94.84175691562349</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>62.326721642336</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-84228.42901841072</v>
+        <v>-94318.83457732733</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14504503.06052411</v>
+        <v>14504503.0605241</v>
       </c>
     </row>
     <row r="9">
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.262548922260275</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>3.262548922260275</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2.677227098474517</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1934,58 +1934,58 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>3.262548922260275</v>
       </c>
-      <c r="G18" t="n">
+      <c r="W18" t="n">
         <v>3.262548922260275</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.677227098474517</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.40220350370247</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.40220350370247</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>3.262548922260275</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="H20" t="n">
         <v>2.873653090726851</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>3.262548922260276</v>
       </c>
-      <c r="U20" t="n">
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>3.262548922260276</v>
-      </c>
-      <c r="V20" t="n">
-        <v>3.262548922260276</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2171,64 +2171,64 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
         <v>3.262548922260276</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.262548922260276</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>2.677227098474515</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="H22" t="n">
-        <v>1.40220350370247</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.402203503702469</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>205.5539892783822</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>158.3131117145626</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H24" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306969</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X24" t="n">
-        <v>153.3187614035089</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y24" t="n">
         <v>125.2209214285714</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4.041893150377419</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.40208394875348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,16 +2560,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>368.5724630577451</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>54.91274684145317</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>124.8306395731037</v>
       </c>
       <c r="U27" t="n">
-        <v>174.5071388043578</v>
+        <v>174.5071388043577</v>
       </c>
       <c r="V27" t="n">
         <v>197.1263427586206</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>167.8191401812167</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>143.3193010541978</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>319.8151589143686</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>156.7012890994288</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H30" t="n">
-        <v>31.62322353306969</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>34.51516921304759</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>77.40984892467291</v>
       </c>
       <c r="U31" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>130.7837217554836</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>328.5107569703951</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H33" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353307034</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T33" t="n">
         <v>124.8306395731037</v>
@@ -3167,7 +3167,7 @@
         <v>174.5071388043578</v>
       </c>
       <c r="V33" t="n">
-        <v>197.1263427586207</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W33" t="n">
         <v>183.4695267241379</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>2.188007759424337</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>146.8446787613392</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>196.2291113321757</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>370.7828241688564</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
@@ -3328,10 +3328,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.17482029426318</v>
+        <v>44.17482029426385</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>102.5476870692681</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>222.9630555389311</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,16 +3505,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>305.2929150998953</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>168.4257624077813</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>82.55</v>
       </c>
       <c r="G39" t="n">
-        <v>83.52738940623969</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H39" t="n">
         <v>31.62322353306971</v>
@@ -3638,7 +3638,7 @@
         <v>124.8306395731037</v>
       </c>
       <c r="U39" t="n">
-        <v>174.5071388043578</v>
+        <v>174.5071388043577</v>
       </c>
       <c r="V39" t="n">
         <v>197.1263427586206</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>20.11185847776729</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>176.0448961179416</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>315.1723433222105</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>79.34771998574253</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>34.51516921304759</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>111.2461524850684</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,19 +3982,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>315.1723433222098</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>328.5107569703947</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306968</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>34.5151692130476</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>207.6346145683467</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5515,13 +5515,13 @@
         <v>0.261003913780822</v>
       </c>
       <c r="J17" t="n">
-        <v>1.160310701713749</v>
+        <v>1.160310701713748</v>
       </c>
       <c r="K17" t="n">
-        <v>2.50813845558963</v>
+        <v>2.508138455589629</v>
       </c>
       <c r="L17" t="n">
-        <v>4.180237967355345</v>
+        <v>4.180237967355344</v>
       </c>
       <c r="M17" t="n">
         <v>6.040770853278583</v>
@@ -5551,10 +5551,10 @@
         <v>6.852011837538955</v>
       </c>
       <c r="V17" t="n">
+        <v>6.852011837538955</v>
+      </c>
+      <c r="W17" t="n">
         <v>3.556507875659888</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.261003913780822</v>
       </c>
       <c r="X17" t="n">
         <v>0.261003913780822</v>
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.852011837538955</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="C18" t="n">
-        <v>6.852011837538955</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="D18" t="n">
-        <v>6.852011837538955</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="E18" t="n">
-        <v>6.852011837538955</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="F18" t="n">
-        <v>3.556507875659888</v>
+        <v>0.261003913780822</v>
       </c>
       <c r="G18" t="n">
         <v>0.261003913780822</v>
@@ -5627,19 +5627,19 @@
         <v>9.556281633977861</v>
       </c>
       <c r="U18" t="n">
-        <v>6.852011837538955</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="V18" t="n">
-        <v>6.852011837538955</v>
+        <v>6.260777672098794</v>
       </c>
       <c r="W18" t="n">
-        <v>6.852011837538955</v>
+        <v>2.965273710219728</v>
       </c>
       <c r="X18" t="n">
-        <v>6.852011837538955</v>
+        <v>2.965273710219728</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.852011837538955</v>
+        <v>2.965273710219728</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.261003913780822</v>
+        <v>4.972875051116929</v>
       </c>
       <c r="C19" t="n">
-        <v>0.261003913780822</v>
+        <v>4.972875051116929</v>
       </c>
       <c r="D19" t="n">
-        <v>0.261003913780822</v>
+        <v>4.972875051116929</v>
       </c>
       <c r="E19" t="n">
-        <v>0.261003913780822</v>
+        <v>3.556507875659888</v>
       </c>
       <c r="F19" t="n">
         <v>0.261003913780822</v>
@@ -5709,16 +5709,16 @@
         <v>4.972875051116929</v>
       </c>
       <c r="V19" t="n">
-        <v>3.556507875659888</v>
+        <v>4.972875051116929</v>
       </c>
       <c r="W19" t="n">
-        <v>0.261003913780822</v>
+        <v>4.972875051116929</v>
       </c>
       <c r="X19" t="n">
-        <v>0.261003913780822</v>
+        <v>4.972875051116929</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.261003913780822</v>
+        <v>4.972875051116929</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.163683803403904</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="C20" t="n">
-        <v>3.163683803403904</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="D20" t="n">
-        <v>3.163683803403904</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="E20" t="n">
-        <v>3.163683803403904</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="F20" t="n">
-        <v>3.163683803403904</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="G20" t="n">
         <v>3.163683803403904</v>
@@ -5755,10 +5755,10 @@
         <v>1.160310701713749</v>
       </c>
       <c r="K20" t="n">
-        <v>2.508138455589631</v>
+        <v>2.50813845558963</v>
       </c>
       <c r="L20" t="n">
-        <v>4.180237967355346</v>
+        <v>4.180237967355345</v>
       </c>
       <c r="M20" t="n">
         <v>6.040770853278584</v>
@@ -5782,22 +5782,22 @@
         <v>13.05019568904111</v>
       </c>
       <c r="T20" t="n">
+        <v>13.05019568904111</v>
+      </c>
+      <c r="U20" t="n">
+        <v>13.05019568904111</v>
+      </c>
+      <c r="V20" t="n">
+        <v>13.05019568904111</v>
+      </c>
+      <c r="W20" t="n">
         <v>9.754691727162038</v>
       </c>
-      <c r="U20" t="n">
+      <c r="X20" t="n">
+        <v>9.754691727162038</v>
+      </c>
+      <c r="Y20" t="n">
         <v>6.459187765282971</v>
-      </c>
-      <c r="V20" t="n">
-        <v>3.163683803403904</v>
-      </c>
-      <c r="W20" t="n">
-        <v>3.163683803403904</v>
-      </c>
-      <c r="X20" t="n">
-        <v>3.163683803403904</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>3.163683803403904</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.852011837538956</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="C21" t="n">
-        <v>6.852011837538956</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="D21" t="n">
-        <v>6.852011837538956</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E21" t="n">
-        <v>6.852011837538956</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F21" t="n">
-        <v>3.556507875659889</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G21" t="n">
-        <v>3.556507875659889</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H21" t="n">
         <v>0.2610039137808221</v>
@@ -5867,16 +5867,16 @@
         <v>9.556281633977861</v>
       </c>
       <c r="V21" t="n">
-        <v>6.852011837538956</v>
+        <v>6.260777672098794</v>
       </c>
       <c r="W21" t="n">
-        <v>6.852011837538956</v>
+        <v>6.260777672098794</v>
       </c>
       <c r="X21" t="n">
-        <v>6.852011837538956</v>
+        <v>6.260777672098794</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.852011837538956</v>
+        <v>3.556507875659889</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.754691727162038</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="C22" t="n">
-        <v>9.754691727162038</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="D22" t="n">
-        <v>9.754691727162038</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="E22" t="n">
-        <v>9.754691727162038</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F22" t="n">
-        <v>9.754691727162038</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="G22" t="n">
-        <v>9.754691727162038</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H22" t="n">
-        <v>8.338324551704998</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I22" t="n">
-        <v>8.338324551704998</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J22" t="n">
-        <v>8.674355930293377</v>
+        <v>0.5970352923692026</v>
       </c>
       <c r="K22" t="n">
-        <v>9.226558710074722</v>
+        <v>1.149238072150545</v>
       </c>
       <c r="L22" t="n">
-        <v>9.933188151431848</v>
+        <v>1.855867513507672</v>
       </c>
       <c r="M22" t="n">
-        <v>10.67822982058441</v>
+        <v>2.600909182660231</v>
       </c>
       <c r="N22" t="n">
-        <v>11.40555606409453</v>
+        <v>3.328235426170352</v>
       </c>
       <c r="O22" t="n">
-        <v>12.07735957113994</v>
+        <v>4.000038933215761</v>
       </c>
       <c r="P22" t="n">
-        <v>12.65220352905942</v>
+        <v>4.574882891135243</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05019568904111</v>
+        <v>4.972875051116929</v>
       </c>
       <c r="R22" t="n">
-        <v>13.05019568904111</v>
+        <v>4.972875051116929</v>
       </c>
       <c r="S22" t="n">
-        <v>13.05019568904111</v>
+        <v>4.972875051116929</v>
       </c>
       <c r="T22" t="n">
-        <v>13.05019568904111</v>
+        <v>4.972875051116929</v>
       </c>
       <c r="U22" t="n">
-        <v>13.05019568904111</v>
+        <v>4.972875051116929</v>
       </c>
       <c r="V22" t="n">
-        <v>9.754691727162038</v>
+        <v>4.972875051116929</v>
       </c>
       <c r="W22" t="n">
-        <v>9.754691727162038</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="X22" t="n">
-        <v>9.754691727162038</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.754691727162038</v>
+        <v>3.556507875659889</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1552.388803007393</v>
+        <v>1180.705317421392</v>
       </c>
       <c r="C23" t="n">
-        <v>1344.758510807007</v>
+        <v>1180.705317421392</v>
       </c>
       <c r="D23" t="n">
-        <v>908.8487259814518</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="E23" t="n">
-        <v>475.073981139747</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
         <v>1463.013992431967</v>
@@ -6019,22 +6019,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V23" t="n">
-        <v>1957.24425759636</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W23" t="n">
-        <v>1552.388803007393</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="X23" t="n">
-        <v>1552.388803007393</v>
+        <v>1180.705317421392</v>
       </c>
       <c r="Y23" t="n">
-        <v>1552.388803007393</v>
+        <v>1180.705317421392</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235846</v>
       </c>
       <c r="H24" t="n">
         <v>47.20655154895473</v>
@@ -6074,10 +6074,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M24" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.20655154895473</v>
+        <v>216.0304522903529</v>
       </c>
       <c r="C25" t="n">
-        <v>47.20655154895473</v>
+        <v>216.0304522903529</v>
       </c>
       <c r="D25" t="n">
-        <v>47.20655154895473</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="E25" t="n">
-        <v>47.20655154895473</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895473</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G25" t="n">
         <v>47.20655154895473</v>
@@ -6174,25 +6174,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S25" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T25" t="n">
-        <v>889.6597230122813</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="U25" t="n">
-        <v>611.2730910610244</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="V25" t="n">
-        <v>324.3175829314549</v>
+        <v>216.0304522903529</v>
       </c>
       <c r="W25" t="n">
-        <v>324.3175829314549</v>
+        <v>216.0304522903529</v>
       </c>
       <c r="X25" t="n">
-        <v>78.92582826486733</v>
+        <v>216.0304522903529</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.20655154895473</v>
+        <v>216.0304522903529</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2052.622535079674</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="C26" t="n">
-        <v>1614.480062263097</v>
+        <v>1088.726211555613</v>
       </c>
       <c r="D26" t="n">
-        <v>1178.570277437541</v>
+        <v>1088.726211555613</v>
       </c>
       <c r="E26" t="n">
-        <v>744.7955325958366</v>
+        <v>1088.726211555613</v>
       </c>
       <c r="F26" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U26" t="n">
-        <v>2052.622535079674</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V26" t="n">
-        <v>2052.622535079674</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W26" t="n">
-        <v>2052.622535079674</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="X26" t="n">
-        <v>2052.622535079674</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="Y26" t="n">
-        <v>2052.622535079674</v>
+        <v>1526.868684372189</v>
       </c>
     </row>
     <row r="27">
@@ -6284,25 +6284,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6311,10 +6311,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M27" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2190.813294436407</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="C28" t="n">
-        <v>2018.251582919632</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="D28" t="n">
-        <v>1852.373590121155</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="E28" t="n">
-        <v>1682.615586371892</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F28" t="n">
-        <v>1682.615586371892</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G28" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H28" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I28" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M28" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N28" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R28" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S28" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T28" t="n">
-        <v>2360.327577447737</v>
+        <v>744.8927522504654</v>
       </c>
       <c r="U28" t="n">
-        <v>2360.327577447737</v>
+        <v>466.5061202992084</v>
       </c>
       <c r="V28" t="n">
-        <v>2360.327577447737</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="W28" t="n">
-        <v>2360.327577447737</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="X28" t="n">
-        <v>2360.327577447737</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="Y28" t="n">
-        <v>2360.327577447737</v>
+        <v>179.5506121696388</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1782.900983623584</v>
+        <v>755.070575821621</v>
       </c>
       <c r="C29" t="n">
-        <v>1344.758510807007</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="D29" t="n">
-        <v>908.8487259814518</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E29" t="n">
-        <v>475.073981139747</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895473</v>
@@ -6463,22 +6463,22 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M29" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P29" t="n">
         <v>2043.069798152528</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W29" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.185114027047</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y29" t="n">
-        <v>1782.900983623584</v>
+        <v>1078.11619088664</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>542.5713050663908</v>
+        <v>542.571305066391</v>
       </c>
       <c r="C30" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030333</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495865</v>
       </c>
       <c r="E30" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765402</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927018</v>
       </c>
       <c r="G30" t="n">
-        <v>79.14920158235846</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H30" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J30" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L30" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M30" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
@@ -6581,13 +6581,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W30" t="n">
-        <v>945.2284211280532</v>
+        <v>945.2284211280535</v>
       </c>
       <c r="X30" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669334</v>
       </c>
       <c r="Y30" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461541</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.20655154895473</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="C31" t="n">
-        <v>47.20655154895473</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="D31" t="n">
-        <v>47.20655154895473</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="E31" t="n">
-        <v>47.20655154895473</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895473</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G31" t="n">
         <v>47.20655154895473</v>
@@ -6648,25 +6648,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S31" t="n">
-        <v>854.7959157263747</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T31" t="n">
-        <v>612.5486916297813</v>
+        <v>667.0414179259371</v>
       </c>
       <c r="U31" t="n">
-        <v>334.1620596785243</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="V31" t="n">
-        <v>47.20655154895473</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="W31" t="n">
-        <v>47.20655154895473</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="X31" t="n">
-        <v>47.20655154895473</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.20655154895473</v>
+        <v>388.6547859746801</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1782.900983623584</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="C32" t="n">
-        <v>1344.758510807007</v>
+        <v>1048.259841770411</v>
       </c>
       <c r="D32" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E32" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L32" t="n">
         <v>805.4408022867025</v>
@@ -6721,31 +6721,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R32" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T32" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131647</v>
       </c>
       <c r="U32" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="V32" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W32" t="n">
-        <v>1915.005753073567</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X32" t="n">
-        <v>1915.005753073567</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="Y32" t="n">
-        <v>1915.005753073567</v>
+        <v>1486.402314586987</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>542.5713050663908</v>
+        <v>542.5713050663915</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030331</v>
+        <v>436.1148439030337</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495864</v>
+        <v>341.024555049587</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765401</v>
+        <v>246.9041403765407</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927023</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235914</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I33" t="n">
         <v>81.42328772043086</v>
@@ -6782,13 +6782,13 @@
         <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M33" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987882</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
@@ -6800,31 +6800,31 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q33" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.94766180768</v>
       </c>
       <c r="R33" t="n">
-        <v>1676.651116233592</v>
+        <v>1676.651116233593</v>
       </c>
       <c r="S33" t="n">
-        <v>1632.030085633326</v>
+        <v>1632.030085633327</v>
       </c>
       <c r="T33" t="n">
-        <v>1505.938530508979</v>
+        <v>1505.93853050898</v>
       </c>
       <c r="U33" t="n">
-        <v>1329.66869333286</v>
+        <v>1329.668693332861</v>
       </c>
       <c r="V33" t="n">
-        <v>1130.551175394859</v>
+        <v>1130.55117539486</v>
       </c>
       <c r="W33" t="n">
-        <v>945.2284211280532</v>
+        <v>945.2284211280539</v>
       </c>
       <c r="X33" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669338</v>
       </c>
       <c r="Y33" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461546</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>743.0230756686125</v>
+        <v>223.9136055871986</v>
       </c>
       <c r="C34" t="n">
-        <v>743.0230756686125</v>
+        <v>223.9136055871986</v>
       </c>
       <c r="D34" t="n">
-        <v>577.1450828701352</v>
+        <v>223.9136055871986</v>
       </c>
       <c r="E34" t="n">
-        <v>407.3870791208724</v>
+        <v>223.9136055871986</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J34" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>202.912315818696</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L34" t="n">
-        <v>326.783117436994</v>
+        <v>326.7831174369941</v>
       </c>
       <c r="M34" t="n">
-        <v>457.3875097755234</v>
+        <v>457.3875097755235</v>
       </c>
       <c r="N34" t="n">
-        <v>584.886421579413</v>
+        <v>584.8864215794131</v>
       </c>
       <c r="O34" t="n">
-        <v>702.6523029271748</v>
+        <v>702.6523029271749</v>
       </c>
       <c r="P34" t="n">
-        <v>803.4213591048583</v>
+        <v>803.4213591048584</v>
       </c>
       <c r="Q34" t="n">
-        <v>873.1886303355139</v>
+        <v>873.1886303355141</v>
       </c>
       <c r="R34" t="n">
-        <v>889.6597230122813</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="S34" t="n">
-        <v>745.2331845165158</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="T34" t="n">
-        <v>745.2331845165158</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="U34" t="n">
-        <v>743.0230756686125</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="V34" t="n">
-        <v>743.0230756686125</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="W34" t="n">
-        <v>743.0230756686125</v>
+        <v>617.6333185985732</v>
       </c>
       <c r="X34" t="n">
-        <v>743.0230756686125</v>
+        <v>372.2415639319856</v>
       </c>
       <c r="Y34" t="n">
-        <v>743.0230756686125</v>
+        <v>223.9136055871986</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>716.4307943255671</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="C35" t="n">
-        <v>716.4307943255671</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D35" t="n">
         <v>716.4307943255671</v>
@@ -6934,28 +6934,28 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6967,22 +6967,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>2101.256885969251</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V35" t="n">
-        <v>1738.639935903077</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W35" t="n">
-        <v>1333.784481314111</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="X35" t="n">
-        <v>914.6420178934214</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="Y35" t="n">
-        <v>914.6420178934214</v>
+        <v>1526.86868437219</v>
       </c>
     </row>
     <row r="36">
@@ -7019,13 +7019,13 @@
         <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M36" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987882</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
@@ -7037,10 +7037,10 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q36" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.94766180768</v>
       </c>
       <c r="R36" t="n">
-        <v>1676.651116233592</v>
+        <v>1676.651116233593</v>
       </c>
       <c r="S36" t="n">
         <v>1632.030085633326</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.20655154895474</v>
+        <v>617.6333185985732</v>
       </c>
       <c r="C37" t="n">
-        <v>47.20655154895474</v>
+        <v>617.6333185985732</v>
       </c>
       <c r="D37" t="n">
-        <v>47.20655154895474</v>
+        <v>617.6333185985732</v>
       </c>
       <c r="E37" t="n">
-        <v>47.20655154895474</v>
+        <v>447.8753148493104</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H37" t="n">
         <v>47.20655154895474</v>
@@ -7098,49 +7098,49 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>202.912315818696</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L37" t="n">
-        <v>326.783117436994</v>
+        <v>326.7831174369941</v>
       </c>
       <c r="M37" t="n">
-        <v>457.3875097755234</v>
+        <v>457.3875097755235</v>
       </c>
       <c r="N37" t="n">
-        <v>584.886421579413</v>
+        <v>584.8864215794131</v>
       </c>
       <c r="O37" t="n">
-        <v>702.6523029271748</v>
+        <v>702.6523029271749</v>
       </c>
       <c r="P37" t="n">
-        <v>803.4213591048583</v>
+        <v>803.4213591048584</v>
       </c>
       <c r="Q37" t="n">
-        <v>873.1886303355139</v>
+        <v>873.1886303355141</v>
       </c>
       <c r="R37" t="n">
-        <v>889.6597230122813</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="S37" t="n">
-        <v>745.2331845165158</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="T37" t="n">
-        <v>745.2331845165158</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="U37" t="n">
-        <v>745.2331845165158</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="V37" t="n">
-        <v>745.2331845165158</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="W37" t="n">
-        <v>520.0179769014339</v>
+        <v>617.6333185985732</v>
       </c>
       <c r="X37" t="n">
-        <v>274.6262222348465</v>
+        <v>617.6333185985732</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.20655154895474</v>
+        <v>617.6333185985732</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1229.635491110173</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="C38" t="n">
-        <v>791.4930182935964</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
-        <v>355.5832334680409</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
-        <v>47.20655154895473</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
         <v>1463.013992431967</v>
@@ -7192,7 +7192,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U38" t="n">
-        <v>2060.790516184048</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="V38" t="n">
-        <v>2060.790516184048</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="W38" t="n">
-        <v>1655.935061595081</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="X38" t="n">
-        <v>1655.935061595081</v>
+        <v>1771.058081291915</v>
       </c>
       <c r="Y38" t="n">
-        <v>1655.935061595081</v>
+        <v>1771.058081291915</v>
       </c>
     </row>
     <row r="39">
@@ -7232,25 +7232,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.20655154895473</v>
+        <v>402.0207442491004</v>
       </c>
       <c r="C40" t="n">
-        <v>47.20655154895473</v>
+        <v>402.0207442491004</v>
       </c>
       <c r="D40" t="n">
-        <v>47.20655154895473</v>
+        <v>381.7057356856991</v>
       </c>
       <c r="E40" t="n">
-        <v>47.20655154895473</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F40" t="n">
-        <v>47.20655154895473</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
         <v>106.1122152511379</v>
@@ -7362,22 +7362,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T40" t="n">
-        <v>889.6597230122813</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="U40" t="n">
-        <v>889.6597230122813</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="V40" t="n">
-        <v>889.6597230122813</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="W40" t="n">
-        <v>711.8365956204211</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="X40" t="n">
-        <v>466.4448409538336</v>
+        <v>402.0207442491004</v>
       </c>
       <c r="Y40" t="n">
-        <v>239.0251702679419</v>
+        <v>402.0207442491004</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1782.900983623584</v>
+        <v>127.3557636557654</v>
       </c>
       <c r="C41" t="n">
-        <v>1344.758510807007</v>
+        <v>127.3557636557654</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>127.3557636557654</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>127.3557636557654</v>
       </c>
       <c r="F41" t="n">
         <v>47.20655154895474</v>
@@ -7408,7 +7408,7 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J41" t="n">
         <v>276.0532770435808</v>
@@ -7441,22 +7441,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.256885969251</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V41" t="n">
-        <v>2101.256885969251</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="W41" t="n">
-        <v>2101.256885969251</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="X41" t="n">
-        <v>2101.256885969251</v>
+        <v>961.9414578410198</v>
       </c>
       <c r="Y41" t="n">
-        <v>2101.256885969251</v>
+        <v>553.6553341406732</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495866</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765403</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927019</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.14920158235873</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
         <v>47.20655154895474</v>
@@ -7496,19 +7496,19 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
         <v>1614.947661807679</v>
@@ -7529,13 +7529,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.07035883486139</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="C43" t="n">
-        <v>82.07035883486139</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="D43" t="n">
-        <v>82.07035883486139</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="E43" t="n">
-        <v>82.07035883486139</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F43" t="n">
-        <v>82.07035883486139</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G43" t="n">
-        <v>82.07035883486139</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H43" t="n">
         <v>47.20655154895474</v>
@@ -7599,22 +7599,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T43" t="n">
-        <v>647.4124989156879</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U43" t="n">
-        <v>369.0258669644309</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V43" t="n">
-        <v>82.07035883486139</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="W43" t="n">
-        <v>82.07035883486139</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="X43" t="n">
-        <v>82.07035883486139</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.07035883486139</v>
+        <v>211.9477319364363</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2101.256885969251</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="C44" t="n">
-        <v>1663.114413152674</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D44" t="n">
-        <v>1227.204628327118</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E44" t="n">
-        <v>793.4298834854135</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F44" t="n">
-        <v>365.5624538946212</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L44" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>2101.256885969251</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W44" t="n">
-        <v>2101.256885969251</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="X44" t="n">
-        <v>2101.256885969251</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="Y44" t="n">
-        <v>2101.256885969251</v>
+        <v>1154.573267142144</v>
       </c>
     </row>
     <row r="45">
@@ -7718,19 +7718,19 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235846</v>
       </c>
       <c r="H45" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
         <v>551.5786779960906</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.07035883486139</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="C46" t="n">
-        <v>47.20655154895473</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D46" t="n">
-        <v>47.20655154895473</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E46" t="n">
-        <v>47.20655154895473</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895473</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
         <v>106.1122152511379</v>
@@ -7836,22 +7836,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T46" t="n">
-        <v>647.4124989156879</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U46" t="n">
-        <v>369.0258669644309</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V46" t="n">
-        <v>82.07035883486139</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W46" t="n">
-        <v>82.07035883486139</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="X46" t="n">
-        <v>82.07035883486139</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.07035883486139</v>
+        <v>679.9277891048604</v>
       </c>
     </row>
   </sheetData>
@@ -23791,13 +23791,13 @@
         <v>256.6292234284552</v>
       </c>
       <c r="V17" t="n">
-        <v>355.7282316432514</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>397.5443511208167</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>411.6884898642221</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>120.0908620689655</v>
+        <v>117.413634970491</v>
       </c>
       <c r="C18" t="n">
         <v>105.3918965517241</v>
@@ -23822,10 +23822,10 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F18" t="n">
-        <v>79.28745107773972</v>
+        <v>82.55</v>
       </c>
       <c r="G18" t="n">
-        <v>81.26296338663548</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H18" t="n">
         <v>41.26298946135317</v>
@@ -23867,13 +23867,13 @@
         <v>128.8537753079323</v>
       </c>
       <c r="U18" t="n">
-        <v>171.8955776863212</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V18" t="n">
-        <v>197.1263427586206</v>
+        <v>193.8637938363604</v>
       </c>
       <c r="W18" t="n">
-        <v>183.4695267241379</v>
+        <v>180.2069778018777</v>
       </c>
       <c r="X18" t="n">
         <v>153.3187614035088</v>
@@ -23898,10 +23898,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>166.6582202080676</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>171.6774345756011</v>
       </c>
       <c r="G19" t="n">
         <v>163.9305612960722</v>
@@ -23949,10 +23949,10 @@
         <v>275.6484088706061</v>
       </c>
       <c r="V19" t="n">
-        <v>282.6837495445714</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>266.0435914473111</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -23983,7 +23983,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3731502167427</v>
+        <v>394.1106012944824</v>
       </c>
       <c r="H20" t="n">
         <v>283.2555893965761</v>
@@ -24022,22 +24022,22 @@
         <v>82.5714639696243</v>
       </c>
       <c r="T20" t="n">
-        <v>214.5571542240768</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U20" t="n">
-        <v>253.3666745061949</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V20" t="n">
-        <v>355.7282316432514</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>397.5443511208167</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>400.9407135410828</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C21" t="n">
-        <v>105.3918965517241</v>
+        <v>102.1293476294639</v>
       </c>
       <c r="D21" t="n">
         <v>94.13938596491228</v>
@@ -24059,13 +24059,13 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F21" t="n">
-        <v>79.28745107773972</v>
+        <v>82.55</v>
       </c>
       <c r="G21" t="n">
         <v>84.52551230889576</v>
       </c>
       <c r="H21" t="n">
-        <v>38.00044053909289</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>174.5728047847957</v>
       </c>
       <c r="V21" t="n">
-        <v>194.4491156601461</v>
+        <v>193.8637938363604</v>
       </c>
       <c r="W21" t="n">
         <v>183.4695267241379</v>
@@ -24116,7 +24116,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y21" t="n">
-        <v>125.2209214285714</v>
+        <v>122.5436943300969</v>
       </c>
     </row>
     <row r="22">
@@ -24141,10 +24141,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9305612960722</v>
+        <v>160.668012373812</v>
       </c>
       <c r="H22" t="n">
-        <v>137.0582644452404</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I22" t="n">
         <v>87.62897272389382</v>
@@ -24186,10 +24186,10 @@
         <v>275.6484088706061</v>
       </c>
       <c r="V22" t="n">
-        <v>280.8234041260135</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>267.9039368658689</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -24208,13 +24208,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>228.2070588100287</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>256.6379270719199</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24369,7 +24369,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>160.1773197201151</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -24378,7 +24378,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>131.0206200144773</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>193.7433900302793</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24448,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>55.01629223713923</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>201.567237722248</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>22.08129235058053</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>62.46433369811443</v>
@@ -24654,13 +24654,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>96.50545080142962</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>102.2214158656901</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>247.5019733639143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24849,10 +24849,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>131.0206200144773</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>108.4671038977602</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>162.4149029309545</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>291.2528530245751</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>103.0399300069048</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,16 +24970,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -25080,22 +25080,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>273.4147578723201</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>78.3007952176936</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>225.807463447883</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>62.97822391955452</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25320,19 +25320,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>72.39229642859321</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
@@ -25374,13 +25374,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>46.34308483064029</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25393,16 +25393,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>124.1440822933925</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>88.05422215591989</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>144.1073543927252</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
@@ -25602,7 +25602,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
@@ -25611,13 +25611,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>93.26124425162976</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>106.8642314578482</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>344.2410353091418</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
@@ -25681,22 +25681,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25800,10 +25800,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>96.50545080142967</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -25839,7 +25839,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>158.059987884503</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -25870,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>80.33532108510778</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>72.29614307268236</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -26025,22 +26025,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>136.3209251885597</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26076,16 +26076,16 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>61.67152580122465</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2114.686156737115</v>
+        <v>2114.686156737103</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2114.686156737111</v>
+        <v>2114.686156737119</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>370538.9985538289</v>
+        <v>370538.9985538287</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>370538.9985538287</v>
+        <v>370538.9985538289</v>
       </c>
     </row>
   </sheetData>
@@ -26337,7 +26337,7 @@
         <v>118852.1316116055</v>
       </c>
       <c r="J2" t="n">
-        <v>118852.1316116056</v>
+        <v>118852.1316116055</v>
       </c>
       <c r="K2" t="n">
         <v>118852.1316116055</v>
@@ -26352,7 +26352,7 @@
         <v>118852.1316116055</v>
       </c>
       <c r="O2" t="n">
-        <v>118852.1316116055</v>
+        <v>118852.1316116056</v>
       </c>
       <c r="P2" t="n">
         <v>118852.1316116055</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>785.1356606908849</v>
+        <v>785.1356606908575</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26444,22 +26444,22 @@
         <v>414.2905444231689</v>
       </c>
       <c r="K4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="L4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="M4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="N4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="O4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="P4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
     </row>
     <row r="5">
@@ -26493,25 +26493,25 @@
         <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="G6" t="n">
-        <v>-2544.562237668868</v>
+        <v>-3880.940563514253</v>
       </c>
       <c r="H6" t="n">
-        <v>419.5827798804326</v>
+        <v>-916.7955459649525</v>
       </c>
       <c r="I6" t="n">
-        <v>-432966.1684688943</v>
+        <v>-433607.4065826697</v>
       </c>
       <c r="J6" t="n">
-        <v>72386.75985754456</v>
+        <v>71745.52174376913</v>
       </c>
       <c r="K6" t="n">
-        <v>72386.75985754454</v>
+        <v>71745.52174376915</v>
       </c>
       <c r="L6" t="n">
-        <v>72386.75985754456</v>
+        <v>71745.52174376913</v>
       </c>
       <c r="M6" t="n">
-        <v>72386.75985754453</v>
+        <v>71745.52174376913</v>
       </c>
       <c r="N6" t="n">
-        <v>72386.75985754454</v>
+        <v>71745.52174376915</v>
       </c>
       <c r="O6" t="n">
-        <v>71601.62419685366</v>
+        <v>70960.38608307831</v>
       </c>
       <c r="P6" t="n">
-        <v>72386.75985754456</v>
+        <v>71745.52174376913</v>
       </c>
     </row>
   </sheetData>
@@ -26758,19 +26758,19 @@
         <v>2.662332998740292</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="N3" t="n">
         <v>466.7019280932212</v>
@@ -26779,7 +26779,7 @@
         <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26813,25 +26813,25 @@
         <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="M4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>464.0395950944809</v>
+        <v>464.0395950944808</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.262548922260389</v>
+        <v>3.262548922260275</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33213,7 +33213,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,13 +33256,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33274,25 +33274,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
         <v>0.06604272567356906</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
@@ -33344,7 +33344,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33368,10 +33368,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
         <v>0.04590510768130049</v>
@@ -33414,13 +33414,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H32" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699081</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
@@ -33429,10 +33429,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
@@ -33447,10 +33447,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917233</v>
@@ -33523,16 +33523,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S33" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T33" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998885</v>
@@ -33599,19 +33599,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R34" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S34" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,13 +33651,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H35" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -33666,10 +33666,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548411</v>
@@ -33684,10 +33684,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N36" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917233</v>
@@ -33760,16 +33760,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S36" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T36" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998885</v>
@@ -33836,19 +33836,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S37" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34398,7 +34398,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,13 +34441,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34459,25 +34459,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356906</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
@@ -34529,7 +34529,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34553,10 +34553,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
         <v>0.04590510768130049</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9083906948817447</v>
+        <v>0.9083906948817438</v>
       </c>
       <c r="K17" t="n">
         <v>1.361442175632203</v>
       </c>
       <c r="L17" t="n">
-        <v>1.688989405823955</v>
+        <v>1.688989405823954</v>
       </c>
       <c r="M17" t="n">
-        <v>1.879326147397211</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N17" t="n">
         <v>1.909735609237093</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9083906948817443</v>
+        <v>0.9083906948817447</v>
       </c>
       <c r="K20" t="n">
-        <v>1.361442175632205</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L20" t="n">
-        <v>1.688989405823954</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M20" t="n">
-        <v>1.879326147397211</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N20" t="n">
         <v>1.909735609237094</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3394256349377578</v>
+        <v>0.3394256349377581</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5577805856377207</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7137671124819462</v>
+        <v>0.7137671124819465</v>
       </c>
       <c r="M22" t="n">
         <v>0.7525673425783417</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7346729732425477</v>
+        <v>0.7346729732425468</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6785894010559677</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5806504625449325</v>
+        <v>0.5806504625449316</v>
       </c>
       <c r="Q22" t="n">
         <v>0.4020122828097836</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -36363,7 +36363,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36372,7 +36372,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
         <v>269.7982739184533</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36591,16 +36591,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -36685,7 +36685,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O28" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36849,7 +36849,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562348</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -36919,10 +36919,10 @@
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811317</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
@@ -37065,22 +37065,22 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785941</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994723</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -37250,7 +37250,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125707</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37326,7 +37326,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
         <v>117.855135640546</v>
@@ -37384,25 +37384,25 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -37487,7 +37487,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -37551,7 +37551,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
@@ -37560,7 +37560,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37703,7 +37703,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -37864,13 +37864,13 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646688</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766674</v>
@@ -38028,10 +38028,10 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562349</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -38119,7 +38119,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
